--- a/data/trans_orig/DC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26285</v>
+        <v>26451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48755</v>
+        <v>48134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1337114255809103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09627891861557512</v>
+        <v>0.09688789166315585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1785834039057727</v>
+        <v>0.176307716406114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -765,19 +765,19 @@
         <v>54220</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42403</v>
+        <v>42604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68315</v>
+        <v>69102</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2078671522936156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1625626344428915</v>
+        <v>0.1633338437987413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2619051575325871</v>
+        <v>0.2649212913243418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -786,19 +786,19 @@
         <v>90724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72716</v>
+        <v>74305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106526</v>
+        <v>107751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1699439057552074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1362112032226335</v>
+        <v>0.1391879908432689</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1995443000618821</v>
+        <v>0.2018381344890922</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>236505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224255</v>
+        <v>224876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246725</v>
+        <v>246559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8662885744190897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8214165960942273</v>
+        <v>0.823692283593886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9037210813844249</v>
+        <v>0.9031121083368442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>193</v>
@@ -836,19 +836,19 @@
         <v>206618</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192523</v>
+        <v>191736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218435</v>
+        <v>218234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7921328477063844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.738094842467413</v>
+        <v>0.7350787086756582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8374373655571086</v>
+        <v>0.8366661562012587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>427</v>
@@ -857,19 +857,19 @@
         <v>443124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>427322</v>
+        <v>426097</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461132</v>
+        <v>459543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8300560942447925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8004556999381177</v>
+        <v>0.7981618655109077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8637887967773661</v>
+        <v>0.860812009156731</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>109210</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87317</v>
+        <v>90693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126040</v>
+        <v>128061</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2214876414995683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1770858157709592</v>
+        <v>0.1839334032449189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2556211941762259</v>
+        <v>0.2597181349198762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -982,19 +982,19 @@
         <v>226070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>205482</v>
+        <v>201502</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>247123</v>
+        <v>245671</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4485972665914488</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4077426985293343</v>
+        <v>0.3998463775303833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4903725057129824</v>
+        <v>0.487491001886569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -1003,19 +1003,19 @@
         <v>335280</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>306639</v>
+        <v>303762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>365114</v>
+        <v>365529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3362809289312187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3075547570176629</v>
+        <v>0.3046689679083002</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3662033436951138</v>
+        <v>0.3666202561753902</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>383865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>367035</v>
+        <v>365014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405758</v>
+        <v>402382</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7785123585004317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.744378805823774</v>
+        <v>0.7402818650801239</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8229141842290408</v>
+        <v>0.8160665967550811</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>274</v>
@@ -1053,19 +1053,19 @@
         <v>277879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256826</v>
+        <v>258278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>298467</v>
+        <v>302447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5514027334085513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5096274942870178</v>
+        <v>0.5125089981134311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5922573014706658</v>
+        <v>0.6001536224696167</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -1074,19 +1074,19 @@
         <v>661744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>631910</v>
+        <v>631495</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>690385</v>
+        <v>693262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6637190710687814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6337966563048867</v>
+        <v>0.6333797438246102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6924452429823372</v>
+        <v>0.6953310320916999</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>32297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23005</v>
+        <v>23521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46008</v>
+        <v>44006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1012942711464835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07215066140070085</v>
+        <v>0.073767723375293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1442951532992526</v>
+        <v>0.1380175649801171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1199,19 +1199,19 @@
         <v>71786</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58186</v>
+        <v>56729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86422</v>
+        <v>86372</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2140244914492635</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1734756746811268</v>
+        <v>0.1691330110679124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2576599352574453</v>
+        <v>0.2575094900367088</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -1220,19 +1220,19 @@
         <v>104084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86100</v>
+        <v>86673</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123006</v>
+        <v>124173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1590865700125203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1315998601478165</v>
+        <v>0.132474771077176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1880080946248033</v>
+        <v>0.1897916860805202</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>286549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272838</v>
+        <v>274840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295841</v>
+        <v>295325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8987057288535165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8557048467007474</v>
+        <v>0.8619824350198829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9278493385992991</v>
+        <v>0.926232276624707</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -1270,19 +1270,19 @@
         <v>263626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248990</v>
+        <v>249040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277226</v>
+        <v>278683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7859755085507365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7423400647425548</v>
+        <v>0.7424905099632914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8265243253188733</v>
+        <v>0.8308669889320878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>540</v>
@@ -1291,19 +1291,19 @@
         <v>550174</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531252</v>
+        <v>530085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>568158</v>
+        <v>567585</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8409134299874798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8119919053751965</v>
+        <v>0.8102083139194798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8684001398521835</v>
+        <v>0.8675252289228237</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72253</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57628</v>
+        <v>58057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89492</v>
+        <v>89474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2014460501217009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1606708395415425</v>
+        <v>0.1618657522664055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2495091106146864</v>
+        <v>0.2494600159025546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1416,19 +1416,19 @@
         <v>80458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66053</v>
+        <v>65476</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97221</v>
+        <v>96271</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2166010283324477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1778222298897019</v>
+        <v>0.176267616954991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2617293885732093</v>
+        <v>0.2591708644890088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -1437,19 +1437,19 @@
         <v>152711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132288</v>
+        <v>132596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174600</v>
+        <v>176399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.209156224464533</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1811855288750221</v>
+        <v>0.1816063184155385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2391368963523146</v>
+        <v>0.2416004462127789</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>286418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>269179</v>
+        <v>269197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301043</v>
+        <v>300614</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7985539498782991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7504908893853135</v>
+        <v>0.7505399840974453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8393291604584575</v>
+        <v>0.8381342477335944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>301</v>
@@ -1487,19 +1487,19 @@
         <v>290998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274235</v>
+        <v>275185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305403</v>
+        <v>305980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7833989716675523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.738270611426791</v>
+        <v>0.7408291355109912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8221777701102986</v>
+        <v>0.823732383045009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>589</v>
@@ -1508,19 +1508,19 @@
         <v>577416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>555527</v>
+        <v>553728</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597839</v>
+        <v>597531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.790843775535467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7608631036476854</v>
+        <v>0.7583995537872211</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.818814471124978</v>
+        <v>0.8183936815844616</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14392</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7832</v>
+        <v>8285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22832</v>
+        <v>22011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07079102808788286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03852359892317529</v>
+        <v>0.04075124156887763</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1123022554707748</v>
+        <v>0.1082623334618007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1633,19 +1633,19 @@
         <v>39671</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29276</v>
+        <v>29111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53273</v>
+        <v>52257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.191031607197387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1409755326519052</v>
+        <v>0.1401798490666439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2565304983820913</v>
+        <v>0.2516386163806703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1654,19 +1654,19 @@
         <v>54064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41017</v>
+        <v>42371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69830</v>
+        <v>70916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1315491205014864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09980288221892579</v>
+        <v>0.1030977430767114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1699119553798417</v>
+        <v>0.1725547197363832</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180476</v>
+        <v>181297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195476</v>
+        <v>195023</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9292089719121172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8876977445292252</v>
+        <v>0.8917376665381992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9614764010768246</v>
+        <v>0.959248758431122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1704,19 +1704,19 @@
         <v>167997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154395</v>
+        <v>155411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178392</v>
+        <v>178557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.808968392802613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7434695016179084</v>
+        <v>0.7483613836193292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8590244673480945</v>
+        <v>0.8598201509333561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -1725,19 +1725,19 @@
         <v>356912</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>341146</v>
+        <v>340060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>369959</v>
+        <v>368605</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8684508794985136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8300880446201578</v>
+        <v>0.8274452802636169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9001971177810738</v>
+        <v>0.8969022569232886</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>44041</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33192</v>
+        <v>33454</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56443</v>
+        <v>57285</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1626247243754539</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1225666095560795</v>
+        <v>0.1235343400940411</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2084231950069474</v>
+        <v>0.2115318129950756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1850,19 +1850,19 @@
         <v>75075</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62462</v>
+        <v>60564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90812</v>
+        <v>88863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2699146094416316</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2245668135862428</v>
+        <v>0.2177446743492688</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3264938366731156</v>
+        <v>0.3194865275596901</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -1871,19 +1871,19 @@
         <v>119116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101876</v>
+        <v>102279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138994</v>
+        <v>138466</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2169862614313791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.185582290386707</v>
+        <v>0.1863160183702205</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2531970547138593</v>
+        <v>0.2522363304806864</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>226770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214368</v>
+        <v>213526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237619</v>
+        <v>237357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8373752756245462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7915768049930524</v>
+        <v>0.7884681870049243</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8774333904439204</v>
+        <v>0.8764656599059589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>196</v>
@@ -1921,19 +1921,19 @@
         <v>203069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187332</v>
+        <v>189281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>215682</v>
+        <v>217580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7300853905583683</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6735061633268846</v>
+        <v>0.68051347244031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7754331864137574</v>
+        <v>0.7822553256507313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>418</v>
@@ -1942,19 +1942,19 @@
         <v>429839</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>409961</v>
+        <v>410489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>447079</v>
+        <v>446676</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7830137385686209</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.746802945286141</v>
+        <v>0.7477636695193137</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.814417709613293</v>
+        <v>0.8136839816297797</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>100067</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83744</v>
+        <v>83287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120354</v>
+        <v>120675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1627039154676126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1361623552029902</v>
+        <v>0.13541969016567</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1956894569499097</v>
+        <v>0.1962105982139314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -2067,19 +2067,19 @@
         <v>129562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111882</v>
+        <v>112299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152697</v>
+        <v>149462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.20300588627448</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1753029875696887</v>
+        <v>0.1759566811697054</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2392553864759682</v>
+        <v>0.2341858701572906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -2088,19 +2088,19 @@
         <v>229630</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>202631</v>
+        <v>202696</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>257887</v>
+        <v>259424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1832278063756083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1616846078397849</v>
+        <v>0.161737126978714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2057753400619927</v>
+        <v>0.2070020036489102</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>514960</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>494673</v>
+        <v>494352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>531283</v>
+        <v>531740</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8372960845323875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8043105430500903</v>
+        <v>0.8037894017860686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8638376447970098</v>
+        <v>0.8645803098343298</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>492</v>
@@ -2138,19 +2138,19 @@
         <v>508657</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>485522</v>
+        <v>488757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>526337</v>
+        <v>525920</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.79699411372552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7607446135240319</v>
+        <v>0.7658141298427094</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8246970124303115</v>
+        <v>0.8240433188302946</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>984</v>
@@ -2159,19 +2159,19 @@
         <v>1023616</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>995359</v>
+        <v>993822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1050615</v>
+        <v>1050550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8167721936243917</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7942246599380073</v>
+        <v>0.7929979963510896</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8383153921602152</v>
+        <v>0.838262873021286</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>164968</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143245</v>
+        <v>140758</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>189754</v>
+        <v>186619</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2217916930598546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1925869580850539</v>
+        <v>0.1892429628488127</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.255116372042042</v>
+        <v>0.2509010388491568</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>252</v>
@@ -2284,19 +2284,19 @@
         <v>264754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>236072</v>
+        <v>237946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>291270</v>
+        <v>289851</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3379072363546818</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3013002396002735</v>
+        <v>0.3036920553105898</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3717499316892986</v>
+        <v>0.3699384251064424</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>421</v>
@@ -2305,19 +2305,19 @@
         <v>429722</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>396650</v>
+        <v>393792</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>465557</v>
+        <v>463549</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.281359194889297</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2597055861437476</v>
+        <v>0.2578344064838455</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3048225825017004</v>
+        <v>0.303507650572767</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>578827</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>554041</v>
+        <v>557176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>600550</v>
+        <v>603037</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7782083069401454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7448836279579579</v>
+        <v>0.7490989611508432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.807413041914946</v>
+        <v>0.8107570371511872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>493</v>
@@ -2355,19 +2355,19 @@
         <v>518757</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>492241</v>
+        <v>493660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>547439</v>
+        <v>545565</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6620927636453181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6282500683107014</v>
+        <v>0.6300615748935574</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6986997603997265</v>
+        <v>0.6963079446894102</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1060</v>
@@ -2376,19 +2376,19 @@
         <v>1097584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1061749</v>
+        <v>1063757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1130656</v>
+        <v>1133514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7186408051107029</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6951774174982996</v>
+        <v>0.6964923494272333</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7402944138562526</v>
+        <v>0.7421655935161545</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>573733</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1751029989024037</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>925</v>
@@ -2501,19 +2501,19 @@
         <v>941596</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2786450258329519</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1506</v>
@@ -2522,19 +2522,19 @@
         <v>1515329</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2276724961502341</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2702810</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2656333</v>
+        <v>2656711</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2746102</v>
+        <v>2744457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8248970010975962</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8107121394920738</v>
+        <v>0.8108275725584642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8381094793079711</v>
+        <v>0.8376076146997313</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2372</v>
@@ -2572,19 +2572,19 @@
         <v>2437601</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2388255</v>
+        <v>2385061</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2495059</v>
+        <v>2487393</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7213549741670481</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7067521447140668</v>
+        <v>0.7058070581559426</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7383586828488152</v>
+        <v>0.7360900103789972</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5005</v>
@@ -2593,19 +2593,19 @@
         <v>5140412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5065439</v>
+        <v>5073774</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5206906</v>
+        <v>5210298</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7723275038497659</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7610631482819139</v>
+        <v>0.762315425460822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.782317981070945</v>
+        <v>0.7828276899981977</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>23994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15812</v>
+        <v>16397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36677</v>
+        <v>34988</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08140869545408037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05364660841866602</v>
+        <v>0.05563364951181803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1244403223053988</v>
+        <v>0.1187101036835369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -2962,19 +2962,19 @@
         <v>74840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59159</v>
+        <v>59397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91654</v>
+        <v>91857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2605444250144292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2059533164482291</v>
+        <v>0.2067816029935217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3190808113332768</v>
+        <v>0.3197850108550689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -2983,19 +2983,19 @@
         <v>98834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82074</v>
+        <v>79914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120275</v>
+        <v>117460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1698233741367421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1410253829923255</v>
+        <v>0.1373127173541964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2066648774092676</v>
+        <v>0.2018280165481862</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>270744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258061</v>
+        <v>259750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278926</v>
+        <v>278341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9185913045459196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8755596776946012</v>
+        <v>0.8812898963164633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.946353391581334</v>
+        <v>0.944366350488182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -3033,19 +3033,19 @@
         <v>212405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195591</v>
+        <v>195388</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228086</v>
+        <v>227848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7394555749855708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.680919188666723</v>
+        <v>0.6802149891449311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7940466835517708</v>
+        <v>0.7932183970064783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>448</v>
@@ -3054,19 +3054,19 @@
         <v>483149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461708</v>
+        <v>464523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499909</v>
+        <v>502069</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8301766258632578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7933351225907324</v>
+        <v>0.7981719834518138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8589746170076745</v>
+        <v>0.8626872826458036</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>34342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23673</v>
+        <v>24005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48052</v>
+        <v>50120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06793396070707468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04682757614760738</v>
+        <v>0.04748539211699566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09505393244696742</v>
+        <v>0.09914393997564039</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -3179,19 +3179,19 @@
         <v>105330</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87314</v>
+        <v>87595</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126064</v>
+        <v>126584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2011015956571332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1667049897262824</v>
+        <v>0.1672413550917502</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2406879325570756</v>
+        <v>0.2416801011837809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -3200,19 +3200,19 @@
         <v>139672</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118828</v>
+        <v>117305</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164191</v>
+        <v>162602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1356975585919561</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1154467631323862</v>
+        <v>0.1139667854934382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.159518057478228</v>
+        <v>0.1579747935589725</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>471185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>457475</v>
+        <v>455407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481854</v>
+        <v>481522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9320660392929253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.904946067553032</v>
+        <v>0.9008560600243595</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9531724238523925</v>
+        <v>0.9525146078830043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -3250,19 +3250,19 @@
         <v>418435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>397701</v>
+        <v>397181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>436451</v>
+        <v>436170</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7988984043428667</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7593120674429243</v>
+        <v>0.7583198988162191</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8332950102737176</v>
+        <v>0.8327586449082498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>823</v>
@@ -3271,19 +3271,19 @@
         <v>889620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865101</v>
+        <v>866690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>910464</v>
+        <v>911987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8643024414080439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8404819425217722</v>
+        <v>0.8420252064410274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.884553236867614</v>
+        <v>0.8860332145065617</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>27824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19837</v>
+        <v>18050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40260</v>
+        <v>38166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08586548047726664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06121533182896748</v>
+        <v>0.05570317794459687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1242411504629254</v>
+        <v>0.1177783864799448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3396,19 +3396,19 @@
         <v>68216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54192</v>
+        <v>54401</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84255</v>
+        <v>84413</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2000349585268164</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1589120724925051</v>
+        <v>0.1595230526673031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2470665096254894</v>
+        <v>0.2475301968027032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -3417,19 +3417,19 @@
         <v>96040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80200</v>
+        <v>77473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117418</v>
+        <v>115831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1444071527516105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1205891542771639</v>
+        <v>0.1164895074219778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1765516352385408</v>
+        <v>0.1741644838001564</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>296222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283786</v>
+        <v>285880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304209</v>
+        <v>305996</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9141345195227334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8757588495370745</v>
+        <v>0.8822216135200552</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9387846681710325</v>
+        <v>0.9442968220554034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>255</v>
@@ -3467,19 +3467,19 @@
         <v>272804</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256765</v>
+        <v>256607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286828</v>
+        <v>286619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7999650414731836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7529334903745106</v>
+        <v>0.7524698031972966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8410879275074948</v>
+        <v>0.840476947332697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>547</v>
@@ -3488,19 +3488,19 @@
         <v>569026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>547648</v>
+        <v>549235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>584866</v>
+        <v>587593</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8555928472483895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8234483647614593</v>
+        <v>0.8258355161998436</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8794108457228361</v>
+        <v>0.8835104925780223</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>42752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30881</v>
+        <v>30877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57108</v>
+        <v>56652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1143147527825859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08257345898196219</v>
+        <v>0.08256272212105513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1527031617144445</v>
+        <v>0.1514831534948059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -3613,19 +3613,19 @@
         <v>107205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88926</v>
+        <v>89628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125864</v>
+        <v>125009</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.275625034145252</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.228630568820842</v>
+        <v>0.2304339619749831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3235993763832715</v>
+        <v>0.3214010212470315</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -3634,19 +3634,19 @@
         <v>149956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129092</v>
+        <v>128681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170982</v>
+        <v>172991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1965523614190614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1692047908660534</v>
+        <v>0.1686660779370719</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2241107688253432</v>
+        <v>0.2267449420249176</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>331230</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316874</v>
+        <v>317330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343101</v>
+        <v>343105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.885685247217414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8472968382855554</v>
+        <v>0.848516846505194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9174265410180377</v>
+        <v>0.9174372778789448</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -3684,19 +3684,19 @@
         <v>281746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>263087</v>
+        <v>263942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300025</v>
+        <v>299323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.724374965854748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6764006236167285</v>
+        <v>0.6785989787529686</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7713694311791579</v>
+        <v>0.7695660380250169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>573</v>
@@ -3705,19 +3705,19 @@
         <v>612977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>591951</v>
+        <v>589942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>633841</v>
+        <v>634252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8034476385809386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7758892311746568</v>
+        <v>0.7732550579750824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8307952091339467</v>
+        <v>0.8313339220629281</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>35403</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24041</v>
+        <v>25762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47798</v>
+        <v>49143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1665098639273893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1130727585443997</v>
+        <v>0.121163674919195</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2248051163225851</v>
+        <v>0.2311328135077293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -3830,19 +3830,19 @@
         <v>86614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70996</v>
+        <v>70266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100789</v>
+        <v>100410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3944347894861755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3233115652956821</v>
+        <v>0.3199848273016664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.458985508070457</v>
+        <v>0.4572594329502839</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -3851,19 +3851,19 @@
         <v>122017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>104736</v>
+        <v>102888</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142306</v>
+        <v>141919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2823109179771326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2423273763826845</v>
+        <v>0.2380505605354784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3292517472803717</v>
+        <v>0.3283564693506164</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>177215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164820</v>
+        <v>163475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188577</v>
+        <v>186856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8334901360726107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7751948836774148</v>
+        <v>0.7688671864922706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8869272414556003</v>
+        <v>0.878836325080805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>129</v>
@@ -3901,19 +3901,19 @@
         <v>132977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118802</v>
+        <v>119181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148595</v>
+        <v>149325</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6055652105138245</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5410144919295431</v>
+        <v>0.5427405670497162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6766884347043179</v>
+        <v>0.6800151726983343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>293</v>
@@ -3922,19 +3922,19 @@
         <v>310192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>289903</v>
+        <v>290290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327473</v>
+        <v>329321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7176890820228674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6707482527196282</v>
+        <v>0.6716435306493835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7576726236173155</v>
+        <v>0.7619494394645215</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>41979</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30315</v>
+        <v>30195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55329</v>
+        <v>55041</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1532196000470132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1106464108138796</v>
+        <v>0.1102100002084952</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2019435420418925</v>
+        <v>0.2008930698441424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -4047,19 +4047,19 @@
         <v>75622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61128</v>
+        <v>61920</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91086</v>
+        <v>92722</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2700471777007526</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2182896090459772</v>
+        <v>0.2211168284027942</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.325270885693615</v>
+        <v>0.3311137149170481</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -4068,19 +4068,19 @@
         <v>117601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98799</v>
+        <v>100813</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138267</v>
+        <v>140003</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2122712867914432</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1783328168173027</v>
+        <v>0.1819691080664539</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2495732962661237</v>
+        <v>0.2527071940170036</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>232002</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218652</v>
+        <v>218940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243666</v>
+        <v>243786</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8467803999529867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7980564579581075</v>
+        <v>0.7991069301558573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8893535891861204</v>
+        <v>0.8897899997915049</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>196</v>
@@ -4118,19 +4118,19 @@
         <v>204409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>188945</v>
+        <v>187309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218903</v>
+        <v>218111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7299528222992474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.674729114306385</v>
+        <v>0.668886285082952</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7817103909540228</v>
+        <v>0.7788831715972059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>417</v>
@@ -4139,19 +4139,19 @@
         <v>436411</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415745</v>
+        <v>414009</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>455213</v>
+        <v>453199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7877287132085569</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7504267037338763</v>
+        <v>0.7472928059829964</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8216671831826975</v>
+        <v>0.8180308919335462</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>79994</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64307</v>
+        <v>64829</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99790</v>
+        <v>99333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.120693145146995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09702560694702221</v>
+        <v>0.0978130937091999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1505604108273386</v>
+        <v>0.1498711504136594</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -4264,19 +4264,19 @@
         <v>183796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>160179</v>
+        <v>159460</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>209159</v>
+        <v>209816</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2648923577194707</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2308550134400258</v>
+        <v>0.2298175180684325</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3014454734270086</v>
+        <v>0.3023932151559093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>245</v>
@@ -4285,19 +4285,19 @@
         <v>263790</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>234843</v>
+        <v>236295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293500</v>
+        <v>298278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1944437182785927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1731065656513422</v>
+        <v>0.1741766525839896</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2163430221651718</v>
+        <v>0.2198649150514901</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>582794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>562998</v>
+        <v>563455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>598481</v>
+        <v>597959</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.879306854853005</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8494395891726615</v>
+        <v>0.8501288495863406</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9029743930529778</v>
+        <v>0.9021869062908001</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>469</v>
@@ -4335,19 +4335,19 @@
         <v>510057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>484694</v>
+        <v>484037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>533674</v>
+        <v>534393</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7351076422805293</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6985545265729911</v>
+        <v>0.6976067848440911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7691449865599741</v>
+        <v>0.7701824819315676</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1009</v>
@@ -4356,19 +4356,19 @@
         <v>1092851</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1063141</v>
+        <v>1058363</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1121798</v>
+        <v>1120346</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8055562817214073</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.783656977834828</v>
+        <v>0.7801350849485097</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8268934343486578</v>
+        <v>0.8258233474160105</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>67989</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53144</v>
+        <v>53295</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85333</v>
+        <v>85290</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08726635531991309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06821258785468132</v>
+        <v>0.06840630104589633</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.109527749834153</v>
+        <v>0.1094721125482374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -4481,19 +4481,19 @@
         <v>146660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>125339</v>
+        <v>126667</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>173297</v>
+        <v>174434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1780168498240466</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1521374279655479</v>
+        <v>0.1537496182356612</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2103488597451098</v>
+        <v>0.2117295463659986</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>196</v>
@@ -4502,19 +4502,19 @@
         <v>214649</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188970</v>
+        <v>187418</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>244258</v>
+        <v>246400</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1339084888834637</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1178890580402686</v>
+        <v>0.1169204892419459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1523801628314388</v>
+        <v>0.153716221764122</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>711109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>693765</v>
+        <v>693808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>725954</v>
+        <v>725803</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9127336446800869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.890472250165847</v>
+        <v>0.8905278874517627</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9317874121453185</v>
+        <v>0.9315936989541036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>624</v>
@@ -4552,19 +4552,19 @@
         <v>677193</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>650556</v>
+        <v>649419</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>698514</v>
+        <v>697186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8219831501759534</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7896511402548904</v>
+        <v>0.7882704536340015</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8478625720344521</v>
+        <v>0.8462503817643388</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1278</v>
@@ -4573,19 +4573,19 @@
         <v>1388302</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1358693</v>
+        <v>1356551</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1413981</v>
+        <v>1415533</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8660915111165363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8476198371685612</v>
+        <v>0.846283778235878</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8821109419597314</v>
+        <v>0.8830795107580541</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>354278</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.103385153171571</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>787</v>
@@ -4698,19 +4698,19 @@
         <v>848283</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2383948661568715</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1119</v>
@@ -4719,19 +4719,19 @@
         <v>1202561</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1721611359910063</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3072501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3039638</v>
+        <v>3032199</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3108959</v>
+        <v>3107462</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.896614846828429</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8870247149731739</v>
+        <v>0.8848539630248589</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9072540676427276</v>
+        <v>0.9068172552717269</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2511</v>
@@ -4769,19 +4769,19 @@
         <v>2710026</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2659174</v>
+        <v>2657141</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2756673</v>
+        <v>2760380</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7616051338431286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7473139352931958</v>
+        <v>0.7467426554933188</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7747142856360114</v>
+        <v>0.775756176176545</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5388</v>
@@ -4790,19 +4790,19 @@
         <v>5782527</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5719531</v>
+        <v>5720216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5849449</v>
+        <v>5849024</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8278388640089938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.818820223422947</v>
+        <v>0.8189181824718638</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8374195837162186</v>
+        <v>0.8373587277589727</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>30714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21145</v>
+        <v>21101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42650</v>
+        <v>43790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1045527843264114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07198058565206598</v>
+        <v>0.07182973748664503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1451851627749388</v>
+        <v>0.1490667241713537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -5159,19 +5159,19 @@
         <v>74572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60051</v>
+        <v>58693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90465</v>
+        <v>87929</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2582988261157444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2080018728655738</v>
+        <v>0.2033004830176657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3133507949303951</v>
+        <v>0.3045639146135209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -5180,19 +5180,19 @@
         <v>105285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87359</v>
+        <v>86228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127269</v>
+        <v>125982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1807582552710301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1499825466411974</v>
+        <v>0.148040540352885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2185017520635306</v>
+        <v>0.2162920276398377</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>263047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251111</v>
+        <v>249971</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272616</v>
+        <v>272660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8954472156735885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8548148372250612</v>
+        <v>0.8509332758286463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.928019414347934</v>
+        <v>0.928170262513355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -5230,19 +5230,19 @@
         <v>214131</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198238</v>
+        <v>200774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228652</v>
+        <v>230010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7417011738842556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6866492050696048</v>
+        <v>0.6954360853864792</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7919981271344264</v>
+        <v>0.7966995169823347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>446</v>
@@ -5251,19 +5251,19 @@
         <v>477179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>455195</v>
+        <v>456482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495105</v>
+        <v>496236</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8192417447289698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7814982479364693</v>
+        <v>0.7837079723601623</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8500174533588022</v>
+        <v>0.8519594596471153</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>31023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21634</v>
+        <v>21303</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43320</v>
+        <v>42042</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06172778371413074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04304643561184392</v>
+        <v>0.04238809786570468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08619697555028745</v>
+        <v>0.08365398472114793</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -5376,19 +5376,19 @@
         <v>58090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44448</v>
+        <v>45400</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72703</v>
+        <v>74481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1110536108625143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08497333410951972</v>
+        <v>0.08679252579226425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.13898887104605</v>
+        <v>0.1423879677902821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -5397,19 +5397,19 @@
         <v>89113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72021</v>
+        <v>71001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109321</v>
+        <v>109211</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08688384618046566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07021928522350747</v>
+        <v>0.06922484208270807</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1065863791191214</v>
+        <v>0.10647877494184</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>471552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459255</v>
+        <v>460533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480941</v>
+        <v>481272</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9382722162858693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9138030244497125</v>
+        <v>0.9163460152788521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9569535643881559</v>
+        <v>0.9576119021342953</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -5447,19 +5447,19 @@
         <v>464994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450381</v>
+        <v>448603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478636</v>
+        <v>477684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8889463891374857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8610111289539502</v>
+        <v>0.8576120322097179</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9150266658904804</v>
+        <v>0.9132074742077357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>874</v>
@@ -5468,19 +5468,19 @@
         <v>936546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>916338</v>
+        <v>916448</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>953638</v>
+        <v>954658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9131161538195344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8934136208808784</v>
+        <v>0.8935212250581601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9297807147764925</v>
+        <v>0.9307751579172919</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>25534</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17122</v>
+        <v>17436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36264</v>
+        <v>35528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08015254962329686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05374837861663928</v>
+        <v>0.05473391360627433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1138351484997967</v>
+        <v>0.1115265295589129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -5593,19 +5593,19 @@
         <v>62706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50024</v>
+        <v>49541</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79828</v>
+        <v>79578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1864540437437439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1487435420800729</v>
+        <v>0.1473065645968767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2373640963280637</v>
+        <v>0.2366221596077932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -5614,19 +5614,19 @@
         <v>88240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71460</v>
+        <v>71552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106074</v>
+        <v>106298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1347434318697467</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1091202416369465</v>
+        <v>0.1092600845289667</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1619765009481633</v>
+        <v>0.1623188985387488</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>293031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282301</v>
+        <v>283037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301443</v>
+        <v>301129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9198474503767031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8861648515002033</v>
+        <v>0.8884734704410872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9462516213833607</v>
+        <v>0.9452660863937257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -5664,19 +5664,19 @@
         <v>273603</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256481</v>
+        <v>256731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286285</v>
+        <v>286768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8135459562562561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7626359036719362</v>
+        <v>0.7633778403922071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8512564579199272</v>
+        <v>0.8526934354031234</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -5685,19 +5685,19 @@
         <v>566634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>548800</v>
+        <v>548576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>583414</v>
+        <v>583322</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8652565681302533</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8380234990518368</v>
+        <v>0.8376811014612512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8908797583630536</v>
+        <v>0.8907399154710334</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>39554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28138</v>
+        <v>29311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53005</v>
+        <v>54571</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1069133652611939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07605702303653103</v>
+        <v>0.07922778694551051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1432716685556351</v>
+        <v>0.1475032469451451</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -5810,19 +5810,19 @@
         <v>93318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76558</v>
+        <v>75815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111851</v>
+        <v>112727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2409559075610845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1976799771382189</v>
+        <v>0.1957602765298045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2888098618316511</v>
+        <v>0.2910716099432132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -5831,19 +5831,19 @@
         <v>132872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112221</v>
+        <v>112060</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154595</v>
+        <v>154344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.175467480483535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1481961262239307</v>
+        <v>0.1479829321133626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.204153969457655</v>
+        <v>0.2038231596298178</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>330410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316959</v>
+        <v>315393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341826</v>
+        <v>340653</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.893086634738806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8567283314443648</v>
+        <v>0.8524967530548553</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9239429769634687</v>
+        <v>0.9207722130544894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -5881,19 +5881,19 @@
         <v>293965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275432</v>
+        <v>274556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>310725</v>
+        <v>311468</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7590440924389155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7111901381683486</v>
+        <v>0.7089283900567868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8023200228617808</v>
+        <v>0.8042397234701955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>589</v>
@@ -5902,19 +5902,19 @@
         <v>624375</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>602652</v>
+        <v>602903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>645026</v>
+        <v>645187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.824532519516465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.795846030542345</v>
+        <v>0.7961768403701824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8518038737760698</v>
+        <v>0.8520170678866376</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>22825</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14811</v>
+        <v>15763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33684</v>
+        <v>33356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.108062840689377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07012250120760692</v>
+        <v>0.0746296367945945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1594704940247768</v>
+        <v>0.1579215553222098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6027,19 +6027,19 @@
         <v>43339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33108</v>
+        <v>32898</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56761</v>
+        <v>56045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1982668825822413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1514616763898045</v>
+        <v>0.1505023423379482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2596738484796699</v>
+        <v>0.2563972061199574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -6048,19 +6048,19 @@
         <v>66164</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51824</v>
+        <v>52427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81897</v>
+        <v>83488</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1539378150619204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1205749572688599</v>
+        <v>0.1219777825188796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1905438869546579</v>
+        <v>0.1942454227482757</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>188396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177537</v>
+        <v>177865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196410</v>
+        <v>195458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.891937159310623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8405295059752234</v>
+        <v>0.8420784446777895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9298774987923931</v>
+        <v>0.9253703632054053</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -6098,19 +6098,19 @@
         <v>175248</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161826</v>
+        <v>162542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185479</v>
+        <v>185689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8017331174177588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7403261515203301</v>
+        <v>0.7436027938800426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8485383236101958</v>
+        <v>0.8494976576620518</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>369</v>
@@ -6119,19 +6119,19 @@
         <v>363644</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>347911</v>
+        <v>346320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>377984</v>
+        <v>377381</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8460621849380796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8094561130453422</v>
+        <v>0.8057545772517243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8794250427311401</v>
+        <v>0.8780222174811205</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>25986</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17375</v>
+        <v>17491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38123</v>
+        <v>37072</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09876157655337567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06603533179217043</v>
+        <v>0.06647492267145026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1448850334847579</v>
+        <v>0.1408914139487772</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -6244,19 +6244,19 @@
         <v>41816</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30178</v>
+        <v>31234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54281</v>
+        <v>56713</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1531059275556033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1104973190993487</v>
+        <v>0.1143637249402846</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1987472828063802</v>
+        <v>0.2076506450003626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -6265,19 +6265,19 @@
         <v>67802</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53397</v>
+        <v>53826</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85097</v>
+        <v>86199</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1264400653181687</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0995769059584439</v>
+        <v>0.100377339729853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1586917479568137</v>
+        <v>0.1607469761747554</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>237137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225000</v>
+        <v>226051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245748</v>
+        <v>245632</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9012384234466243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8551149665152421</v>
+        <v>0.8591085860512225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9339646682078295</v>
+        <v>0.9335250773285496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -6315,19 +6315,19 @@
         <v>231299</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218834</v>
+        <v>216402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242937</v>
+        <v>241881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8468940724443967</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8012527171936192</v>
+        <v>0.7923493549996372</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8895026809006512</v>
+        <v>0.8856362750597152</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>460</v>
@@ -6336,19 +6336,19 @@
         <v>468436</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>451141</v>
+        <v>450039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482841</v>
+        <v>482412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8735599346818314</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8413082520431865</v>
+        <v>0.8392530238252447</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9004230940415563</v>
+        <v>0.899622660270147</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>71551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55597</v>
+        <v>57199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88971</v>
+        <v>89607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1089784667588995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08467987301868539</v>
+        <v>0.08712021432100592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1355115450717518</v>
+        <v>0.136479220443762</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -6461,19 +6461,19 @@
         <v>150731</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129945</v>
+        <v>131541</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175546</v>
+        <v>176410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2180412602843729</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1879732055993712</v>
+        <v>0.1902817831622647</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2539385240676319</v>
+        <v>0.2551886821709255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>203</v>
@@ -6482,19 +6482,19 @@
         <v>222281</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>196911</v>
+        <v>195746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252391</v>
+        <v>251552</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1649152127637924</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1460926564685823</v>
+        <v>0.1452284795849347</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1872538799556784</v>
+        <v>0.1866314865744</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>585007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>567587</v>
+        <v>566951</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>600961</v>
+        <v>599359</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8910215332411006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8644884549282482</v>
+        <v>0.8635207795562377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9153201269813142</v>
+        <v>0.9128797856789937</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>507</v>
@@ -6532,19 +6532,19 @@
         <v>540563</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>515748</v>
+        <v>514884</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>561349</v>
+        <v>559753</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7819587397156271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7460614759323682</v>
+        <v>0.7448113178290745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8120267944006289</v>
+        <v>0.8097182168377354</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1023</v>
@@ -6553,19 +6553,19 @@
         <v>1125571</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1095461</v>
+        <v>1096300</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1150941</v>
+        <v>1152106</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8350847872362076</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8127461200443216</v>
+        <v>0.8133685134256</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8539073435314178</v>
+        <v>0.8547715204150653</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>74505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58811</v>
+        <v>57966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92817</v>
+        <v>93405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09569268147337935</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07553636324068766</v>
+        <v>0.07445038501136422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1192126413116712</v>
+        <v>0.1199674931104496</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -6678,19 +6678,19 @@
         <v>126610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105500</v>
+        <v>106219</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150912</v>
+        <v>152984</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1532496315415628</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.127697926198252</v>
+        <v>0.1285681263162234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1826646439900348</v>
+        <v>0.1851737658451634</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -6699,19 +6699,19 @@
         <v>201114</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>176999</v>
+        <v>172653</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229071</v>
+        <v>228848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1253244951002127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1102968207809395</v>
+        <v>0.1075888254567678</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1427454294954372</v>
+        <v>0.1426066605881896</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>704078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>685766</v>
+        <v>685178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>719772</v>
+        <v>720617</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9043073185266206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8807873586883289</v>
+        <v>0.8800325068895505</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9244636367593124</v>
+        <v>0.9255496149886362</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>646</v>
@@ -6749,19 +6749,19 @@
         <v>699557</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>675255</v>
+        <v>673183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>720667</v>
+        <v>719948</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8467503684584372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8173353560099651</v>
+        <v>0.8148262341548366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8723020738017478</v>
+        <v>0.8714318736837766</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1326</v>
@@ -6770,19 +6770,19 @@
         <v>1403636</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1375679</v>
+        <v>1375902</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1427751</v>
+        <v>1432097</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8746755048997873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8572545705045629</v>
+        <v>0.8573933394118104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8897031792190605</v>
+        <v>0.8924111745432323</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>321691</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09477255299218749</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>594</v>
@@ -6895,19 +6895,19 @@
         <v>651181</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1837136657317105</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>901</v>
@@ -6916,19 +6916,19 @@
         <v>972872</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1402056702677319</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3072659</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3037280</v>
+        <v>3038229</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3106186</v>
+        <v>3107218</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9052274470078125</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8948045158254349</v>
+        <v>0.8950841060617026</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9151048818268138</v>
+        <v>0.9154088929403151</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2744</v>
@@ -6966,19 +6966,19 @@
         <v>2893361</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2846999</v>
+        <v>2841433</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2940719</v>
+        <v>2938681</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8162863342682896</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8032063543938291</v>
+        <v>0.8016362496632639</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8296469997799623</v>
+        <v>0.8290722241220274</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5668</v>
@@ -6987,19 +6987,19 @@
         <v>5966020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5907116</v>
+        <v>5912649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6027558</v>
+        <v>6029463</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8597943297322681</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8513053382174838</v>
+        <v>0.8521028248669494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8686628973007764</v>
+        <v>0.8689374738165702</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>40364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30446</v>
+        <v>30992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53203</v>
+        <v>54162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1265929650764056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09548830139068082</v>
+        <v>0.09720077200414746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1668616154840071</v>
+        <v>0.1698678706949636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -7356,19 +7356,19 @@
         <v>69172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57893</v>
+        <v>58273</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82400</v>
+        <v>82056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2188574294567329</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1831712000218058</v>
+        <v>0.1843724047480148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2607090311692301</v>
+        <v>0.2596201566381988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>175</v>
@@ -7377,19 +7377,19 @@
         <v>109536</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93853</v>
+        <v>93717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124973</v>
+        <v>125601</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1725228656022821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1478211247955966</v>
+        <v>0.1476081146585059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1968368917674681</v>
+        <v>0.1978263465683325</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>278481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265642</v>
+        <v>264683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288399</v>
+        <v>287853</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8734070349235943</v>
+        <v>0.8734070349235946</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8331383845159931</v>
+        <v>0.8301321293050364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9045116986093193</v>
+        <v>0.9027992279958525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -7427,19 +7427,19 @@
         <v>246889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233661</v>
+        <v>234005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258168</v>
+        <v>257788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7811425705432671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7392909688307699</v>
+        <v>0.7403798433618011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8168287999781942</v>
+        <v>0.8156275952519852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>694</v>
@@ -7448,19 +7448,19 @@
         <v>525370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509933</v>
+        <v>509305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>541053</v>
+        <v>541189</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8274771343977181</v>
+        <v>0.8274771343977179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8031631082325315</v>
+        <v>0.8021736534316674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8521788752044032</v>
+        <v>0.8523918853414942</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>101952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81251</v>
+        <v>81880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124189</v>
+        <v>125294</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1921268868309717</v>
+        <v>0.1921268868309718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1531172538258972</v>
+        <v>0.1543019329147588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2340339332526412</v>
+        <v>0.2361150732968498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -7573,19 +7573,19 @@
         <v>201154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179854</v>
+        <v>180739</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>222652</v>
+        <v>221233</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.368080113977049</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3291055276708593</v>
+        <v>0.3307243528192033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4074196389126989</v>
+        <v>0.4048218524964808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>356</v>
@@ -7594,19 +7594,19 @@
         <v>303105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>270772</v>
+        <v>271804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>335717</v>
+        <v>332784</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2813978479938118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2513800112837812</v>
+        <v>0.2523382415761574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3116739493771767</v>
+        <v>0.3089516583381173</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>428695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406458</v>
+        <v>405353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449396</v>
+        <v>448767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8078731131690282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.765966066747359</v>
+        <v>0.7638849267031503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8468827461741028</v>
+        <v>0.8456980670852414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -7644,19 +7644,19 @@
         <v>345340</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>323842</v>
+        <v>325261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366640</v>
+        <v>365755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6319198860229509</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5925803610873011</v>
+        <v>0.5951781475035189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6708944723291406</v>
+        <v>0.6692756471807967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>743</v>
@@ -7665,19 +7665,19 @@
         <v>774036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741424</v>
+        <v>744357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>806369</v>
+        <v>805337</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7186021520061884</v>
+        <v>0.7186021520061883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6883260506228235</v>
+        <v>0.6910483416618826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7486199887162188</v>
+        <v>0.7476617584238426</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>72070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58527</v>
+        <v>60749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85194</v>
+        <v>87721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2280748324745649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.185216561596644</v>
+        <v>0.1922471007760556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2696080311682595</v>
+        <v>0.2776034752196759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -7790,19 +7790,19 @@
         <v>132586</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118863</v>
+        <v>118267</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148856</v>
+        <v>149373</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3720356266513404</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3335272611201646</v>
+        <v>0.3318566249520766</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4176882566251304</v>
+        <v>0.4191374922835966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>311</v>
@@ -7811,19 +7811,19 @@
         <v>204657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183949</v>
+        <v>185124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224353</v>
+        <v>227366</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.304378916401084</v>
+        <v>0.3043789164010839</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2735806244565923</v>
+        <v>0.2753280657029203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3336719416770463</v>
+        <v>0.3381535245923844</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>243923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230799</v>
+        <v>228272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257466</v>
+        <v>255244</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7719251675254352</v>
+        <v>0.7719251675254351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7303919688317404</v>
+        <v>0.7223965247803242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8147834384033559</v>
+        <v>0.8077528992239443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -7861,19 +7861,19 @@
         <v>223795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207525</v>
+        <v>207008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>237518</v>
+        <v>238114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6279643733486595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5823117433748696</v>
+        <v>0.5808625077164036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6664727388798355</v>
+        <v>0.6681433750479239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -7882,19 +7882,19 @@
         <v>467718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>448022</v>
+        <v>445009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>488426</v>
+        <v>487251</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6956210835989163</v>
+        <v>0.6956210835989162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6663280583229538</v>
+        <v>0.6618464754076155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.726419375543408</v>
+        <v>0.72467193429708</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>58210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44321</v>
+        <v>43596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75753</v>
+        <v>74534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.155997146945535</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1187768655502108</v>
+        <v>0.116832824942777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2030128564406964</v>
+        <v>0.1997453463013137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -8007,19 +8007,19 @@
         <v>148137</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131475</v>
+        <v>129815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166891</v>
+        <v>168596</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.351068192865066</v>
+        <v>0.3510681928650661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3115805793914977</v>
+        <v>0.3076474591920369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3955138791784883</v>
+        <v>0.3995545854907254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -8028,19 +8028,19 @@
         <v>206347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182730</v>
+        <v>183458</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>230479</v>
+        <v>232396</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2595209380962804</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2298185222481831</v>
+        <v>0.2307336783836868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.289871414124105</v>
+        <v>0.2922825641933193</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>314935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>297392</v>
+        <v>298611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>328824</v>
+        <v>329549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8440028530544652</v>
+        <v>0.8440028530544651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7969871435593037</v>
+        <v>0.8002546536986863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8812231344497892</v>
+        <v>0.8831671750572229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -8078,19 +8078,19 @@
         <v>273824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>255070</v>
+        <v>253365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>290486</v>
+        <v>292146</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.648931807134934</v>
+        <v>0.6489318071349341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6044861208215117</v>
+        <v>0.6004454145092744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6884194206085023</v>
+        <v>0.6923525408079627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>586</v>
@@ -8099,19 +8099,19 @@
         <v>588760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>564628</v>
+        <v>562711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>612377</v>
+        <v>611649</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7404790619037197</v>
+        <v>0.7404790619037196</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7101285858758948</v>
+        <v>0.7077174358066807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7701814777518163</v>
+        <v>0.7692663216163133</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>37002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28165</v>
+        <v>28658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46741</v>
+        <v>46490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1799159642198414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1369475750981922</v>
+        <v>0.1393447398141429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2272662275497681</v>
+        <v>0.2260456199706165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -8224,19 +8224,19 @@
         <v>77494</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67390</v>
+        <v>67621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87686</v>
+        <v>87939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3385215014047586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2943846349940251</v>
+        <v>0.2953940155791214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.383043547224497</v>
+        <v>0.3841486172024614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>232</v>
@@ -8245,19 +8245,19 @@
         <v>114496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102052</v>
+        <v>101353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129749</v>
+        <v>128084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2634619268126387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2348288691746116</v>
+        <v>0.2332186546675585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2985594815709148</v>
+        <v>0.2947284262998914</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>168663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158924</v>
+        <v>159175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177500</v>
+        <v>177007</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8200840357801585</v>
+        <v>0.8200840357801586</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7727337724502319</v>
+        <v>0.7739543800293832</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8630524249018077</v>
+        <v>0.8606552601858569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -8295,19 +8295,19 @@
         <v>151424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141232</v>
+        <v>140979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161528</v>
+        <v>161297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6614784985952414</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6169564527755032</v>
+        <v>0.6158513827975387</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7056153650059749</v>
+        <v>0.7046059844208785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>542</v>
@@ -8316,19 +8316,19 @@
         <v>320086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>304833</v>
+        <v>306498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332530</v>
+        <v>333229</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7365380731873613</v>
+        <v>0.7365380731873612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7014405184290854</v>
+        <v>0.7052715737001084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7651711308253886</v>
+        <v>0.7667813453324415</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>75694</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62930</v>
+        <v>63796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88376</v>
+        <v>89693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.279614676630656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2324666328065143</v>
+        <v>0.2356646770121285</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3264638967498675</v>
+        <v>0.3313294291047831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -8441,19 +8441,19 @@
         <v>114616</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100779</v>
+        <v>101309</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127050</v>
+        <v>126558</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4345616462122906</v>
+        <v>0.4345616462122904</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3821007362122461</v>
+        <v>0.3841093848946007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4817069691089387</v>
+        <v>0.479841675512962</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>346</v>
@@ -8462,19 +8462,19 @@
         <v>190309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>171416</v>
+        <v>172592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>208130</v>
+        <v>209336</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3560797387819664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3207296169193596</v>
+        <v>0.3229300541625628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3894227629747837</v>
+        <v>0.3916800262813055</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>195013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182331</v>
+        <v>181014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207777</v>
+        <v>206911</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7203853233693439</v>
+        <v>0.720385323369344</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6735361032501325</v>
+        <v>0.6686705708952169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7675333671934856</v>
+        <v>0.7643353229878717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -8512,19 +8512,19 @@
         <v>149134</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136700</v>
+        <v>137192</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162971</v>
+        <v>162441</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5654383537877096</v>
+        <v>0.5654383537877093</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5182930308910613</v>
+        <v>0.5201583244870374</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6178992637877539</v>
+        <v>0.6158906151053988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>485</v>
@@ -8533,19 +8533,19 @@
         <v>344148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>326327</v>
+        <v>325121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>363041</v>
+        <v>361865</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6439202612180336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.610577237025216</v>
+        <v>0.6083199737186945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6792703830806402</v>
+        <v>0.6770699458374372</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>224290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196762</v>
+        <v>198021</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>252858</v>
+        <v>254516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3116497804653487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2733995691841611</v>
+        <v>0.275148553604391</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3513448623927979</v>
+        <v>0.3536487983579312</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>554</v>
@@ -8658,19 +8658,19 @@
         <v>439176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>415090</v>
+        <v>413225</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>464368</v>
+        <v>464554</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5688382528220314</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5376414807120511</v>
+        <v>0.5352255453523712</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6014680479852899</v>
+        <v>0.6017096948508168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>754</v>
@@ -8679,19 +8679,19 @@
         <v>663466</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>625482</v>
+        <v>619923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>704506</v>
+        <v>702691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4447584946634041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4192958261944661</v>
+        <v>0.4155693385955163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.472269812369329</v>
+        <v>0.4710535314281539</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>495397</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>466829</v>
+        <v>465171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>522925</v>
+        <v>521666</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6883502195346515</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6486551376072018</v>
+        <v>0.6463512016420689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7266004308158387</v>
+        <v>0.7248514463956091</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>406</v>
@@ -8729,19 +8729,19 @@
         <v>332881</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>307689</v>
+        <v>307503</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>356967</v>
+        <v>358832</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4311617471779685</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3985319520147101</v>
+        <v>0.3982903051491833</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4623585192879487</v>
+        <v>0.464774454647629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>805</v>
@@ -8750,19 +8750,19 @@
         <v>828278</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>787238</v>
+        <v>789053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>866262</v>
+        <v>871821</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5552415053365959</v>
+        <v>0.555241505336596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5277301876306708</v>
+        <v>0.528946468571846</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5807041738055339</v>
+        <v>0.5844306614044836</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>147829</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>128279</v>
+        <v>126789</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172001</v>
+        <v>170255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1852325215156276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1607357323619944</v>
+        <v>0.1588696154996487</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2155206819626089</v>
+        <v>0.2133329729908114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>387</v>
@@ -8875,19 +8875,19 @@
         <v>266531</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>242760</v>
+        <v>243444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>288712</v>
+        <v>291547</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3206074825588676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.292013410957384</v>
+        <v>0.292836609402635</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3472889845406171</v>
+        <v>0.350698974913851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>557</v>
@@ -8896,19 +8896,19 @@
         <v>414360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382345</v>
+        <v>380038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>449690</v>
+        <v>445417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2543016460540615</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.234653199746165</v>
+        <v>0.2332374770823062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2759844717539644</v>
+        <v>0.273361931302041</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>650243</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>626071</v>
+        <v>627817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>669793</v>
+        <v>671283</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8147674784843724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7844793180373911</v>
+        <v>0.7866670270091889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8392642676380055</v>
+        <v>0.8411303845003513</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>675</v>
@@ -8946,19 +8946,19 @@
         <v>564800</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>542619</v>
+        <v>539784</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>588571</v>
+        <v>587887</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6793925174411324</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6527110154593834</v>
+        <v>0.6493010250861491</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7079865890426161</v>
+        <v>0.7071633905973651</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1267</v>
@@ -8967,19 +8967,19 @@
         <v>1215043</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1179713</v>
+        <v>1183986</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1247058</v>
+        <v>1249365</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7456983539459385</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7240155282460354</v>
+        <v>0.7266380686979591</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7653468002538352</v>
+        <v>0.766762522917694</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>757410</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2143960285105985</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2204</v>
@@ -9092,19 +9092,19 @@
         <v>1448866</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3036</v>
@@ -9113,19 +9113,19 @@
         <v>2206276</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2775352</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2722359</v>
+        <v>2726554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2827591</v>
+        <v>2825381</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7856039714894016</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.770603472967909</v>
+        <v>0.7717911423578282</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8003910890698536</v>
+        <v>0.7997653296300281</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3163</v>
@@ -9163,19 +9163,19 @@
         <v>2288088</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2238546</v>
+        <v>2239770</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2342118</v>
+        <v>2339997</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6122870261318034</v>
+        <v>0.6122870261318033</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5990295649573146</v>
+        <v>0.5993571423036316</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6267451333472064</v>
+        <v>0.6261775838788051</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5707</v>
@@ -9184,19 +9184,19 @@
         <v>5063440</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4985094</v>
+        <v>4999851</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5138950</v>
+        <v>5144231</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6965114299950629</v>
+        <v>0.6965114299950628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6857343065310236</v>
+        <v>0.6877642728550101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7068983111664252</v>
+        <v>0.7076247392711883</v>
       </c>
     </row>
     <row r="30">
